--- a/medicine/Psychotrope/Crémant/Crémant.xlsx
+++ b/medicine/Psychotrope/Crémant/Crémant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant</t>
+          <t>Crémant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un crémant est un vin effervescent mousseux obtenu par méthode traditionnelle (alias « méthode champenoise » en Champagne) dans une aire d'appellation particulière.
 Il existe ainsi des crémants d'Alsace, de Bourgogne, de Bordeaux, de Die (dans le vignoble de la vallée du Rhône), du Jura, de Limoux (dans le vignoble du Languedoc-Roussillon), de Loire, de Luxembourg, de Savoie et de Wallonie (dans le vignoble de Belgique). Autrefois, l'appellation crémant de Champagne était même d'usage pour les champagnes à la mousse crémeuse.La production de ces crémants doit respecter un cahier des charges (dans le cas français, un décret INAO) propre à leur région.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant</t>
+          <t>Crémant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Crémants français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La production française de crémants d'appellation d'origine contrôlée (AOC) se répartit entre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La production française de crémants d'appellation d'origine contrôlée (AOC) se répartit entre :
 crémant d'Alsace (49 % du marché en 2006) ;
 crémant de Bourgogne (20 %) ;
 crémant de Loire (18 %) ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant</t>
+          <t>Crémant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Autres crémants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crémant de Luxembourg
 Crémant de Wallonie</t>
